--- a/Code/Results/Cases/Case_4_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9900383208024036</v>
+        <v>1.02579021841775</v>
       </c>
       <c r="D2">
-        <v>1.010804007467729</v>
+        <v>1.030664174593956</v>
       </c>
       <c r="E2">
-        <v>0.9982827671745976</v>
+        <v>1.029418373908761</v>
       </c>
       <c r="F2">
-        <v>0.9991095091916428</v>
+        <v>1.035993916326789</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041910460912349</v>
+        <v>1.032230558027885</v>
       </c>
       <c r="J2">
-        <v>1.012521121946814</v>
+        <v>1.030957273845432</v>
       </c>
       <c r="K2">
-        <v>1.022114849670512</v>
+        <v>1.033474531516214</v>
       </c>
       <c r="L2">
-        <v>1.009766077734976</v>
+        <v>1.032232342361987</v>
       </c>
       <c r="M2">
-        <v>1.01058126392223</v>
+        <v>1.038788929057999</v>
       </c>
       <c r="N2">
-        <v>1.013959018077775</v>
+        <v>1.032421351426751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9956874915586498</v>
+        <v>1.026938987174463</v>
       </c>
       <c r="D3">
-        <v>1.015091607128184</v>
+        <v>1.031537035326647</v>
       </c>
       <c r="E3">
-        <v>1.003408195009824</v>
+        <v>1.030514945218111</v>
       </c>
       <c r="F3">
-        <v>1.005425923951792</v>
+        <v>1.037337222847773</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043782604344768</v>
+        <v>1.032509896211723</v>
       </c>
       <c r="J3">
-        <v>1.016296414303925</v>
+        <v>1.031744499328278</v>
       </c>
       <c r="K3">
-        <v>1.025534962005664</v>
+        <v>1.034155621235942</v>
       </c>
       <c r="L3">
-        <v>1.013997652295939</v>
+        <v>1.033136278540924</v>
       </c>
       <c r="M3">
-        <v>1.015989846648928</v>
+        <v>1.039940328501029</v>
       </c>
       <c r="N3">
-        <v>1.017739671783065</v>
+        <v>1.033209694860072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9992507781578858</v>
+        <v>1.027681908650085</v>
       </c>
       <c r="D4">
-        <v>1.017796382916835</v>
+        <v>1.03210111613187</v>
       </c>
       <c r="E4">
-        <v>1.006646772541918</v>
+        <v>1.03122446411666</v>
       </c>
       <c r="F4">
-        <v>1.00941075831625</v>
+        <v>1.038206035137431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044948026330093</v>
+        <v>1.032688645428604</v>
       </c>
       <c r="J4">
-        <v>1.018673668543031</v>
+        <v>1.032252977048416</v>
       </c>
       <c r="K4">
-        <v>1.027684663176998</v>
+        <v>1.034594980859085</v>
       </c>
       <c r="L4">
-        <v>1.016665633381247</v>
+        <v>1.03372056594895</v>
       </c>
       <c r="M4">
-        <v>1.019396915296638</v>
+        <v>1.040684433770066</v>
       </c>
       <c r="N4">
-        <v>1.020120301995865</v>
+        <v>1.033718894676896</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00072772859337</v>
+        <v>1.027994136838721</v>
       </c>
       <c r="D5">
-        <v>1.018917486261911</v>
+        <v>1.032338084304437</v>
       </c>
       <c r="E5">
-        <v>1.007990440399509</v>
+        <v>1.031522738447562</v>
       </c>
       <c r="F5">
-        <v>1.011062631004128</v>
+        <v>1.038571191652642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045427319451684</v>
+        <v>1.03276331280978</v>
       </c>
       <c r="J5">
-        <v>1.019658003459045</v>
+        <v>1.0324665242809</v>
       </c>
       <c r="K5">
-        <v>1.028573817684301</v>
+        <v>1.034779364907675</v>
       </c>
       <c r="L5">
-        <v>1.017771169480912</v>
+        <v>1.033966053100153</v>
       </c>
       <c r="M5">
-        <v>1.020808049775193</v>
+        <v>1.040997036034337</v>
       </c>
       <c r="N5">
-        <v>1.021106034780364</v>
+        <v>1.033932745170945</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000974508075862</v>
+        <v>1.028046555749647</v>
       </c>
       <c r="D6">
-        <v>1.019104805927319</v>
+        <v>1.032377862269743</v>
       </c>
       <c r="E6">
-        <v>1.008215025521027</v>
+        <v>1.03157281962074</v>
       </c>
       <c r="F6">
-        <v>1.011338650086787</v>
+        <v>1.038632497715586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045507180283475</v>
+        <v>1.032775821724276</v>
       </c>
       <c r="J6">
-        <v>1.019822412296222</v>
+        <v>1.032502367116742</v>
       </c>
       <c r="K6">
-        <v>1.028722271928798</v>
+        <v>1.034810304895109</v>
       </c>
       <c r="L6">
-        <v>1.017955870406267</v>
+        <v>1.034007262868371</v>
       </c>
       <c r="M6">
-        <v>1.021043769784375</v>
+        <v>1.041049510521913</v>
       </c>
       <c r="N6">
-        <v>1.021270677096949</v>
+        <v>1.033968638907725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9992705947072386</v>
+        <v>1.027686081033336</v>
       </c>
       <c r="D7">
-        <v>1.017811425101026</v>
+        <v>1.032104283184941</v>
       </c>
       <c r="E7">
-        <v>1.00666479570779</v>
+        <v>1.031228449700491</v>
       </c>
       <c r="F7">
-        <v>1.009432921023486</v>
+        <v>1.038210914735311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044954472060856</v>
+        <v>1.032689645018743</v>
       </c>
       <c r="J7">
-        <v>1.018686879638492</v>
+        <v>1.032255831327627</v>
       </c>
       <c r="K7">
-        <v>1.027696600647374</v>
+        <v>1.034597445875069</v>
       </c>
       <c r="L7">
-        <v>1.016680467903974</v>
+        <v>1.033723846737624</v>
       </c>
       <c r="M7">
-        <v>1.019415852984046</v>
+        <v>1.040688611636726</v>
       </c>
       <c r="N7">
-        <v>1.020133531852597</v>
+        <v>1.033721753009511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9919671758641188</v>
+        <v>1.026178535942843</v>
       </c>
       <c r="D8">
-        <v>1.012267851223156</v>
+        <v>1.030959311092136</v>
       </c>
       <c r="E8">
-        <v>1.000031575924389</v>
+        <v>1.029788973521096</v>
       </c>
       <c r="F8">
-        <v>1.001266067013678</v>
+        <v>1.036447976936339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042552904038897</v>
+        <v>1.032325376244124</v>
       </c>
       <c r="J8">
-        <v>1.013810987342071</v>
+        <v>1.03122350937452</v>
       </c>
       <c r="K8">
-        <v>1.023284171776552</v>
+        <v>1.033704989120018</v>
       </c>
       <c r="L8">
-        <v>1.011211119510782</v>
+        <v>1.032537960808455</v>
       </c>
       <c r="M8">
-        <v>1.012428915885837</v>
+        <v>1.039178243297637</v>
       </c>
       <c r="N8">
-        <v>1.015250715229842</v>
+        <v>1.032687965040822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9783437717657004</v>
+        <v>1.023518835084778</v>
       </c>
       <c r="D9">
-        <v>1.001933604810125</v>
+        <v>1.028936193485074</v>
       </c>
       <c r="E9">
-        <v>0.9877062287313566</v>
+        <v>1.027252100978465</v>
       </c>
       <c r="F9">
-        <v>0.9860358071040185</v>
+        <v>1.033338288238755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037951467780673</v>
+        <v>1.031668145933797</v>
       </c>
       <c r="J9">
-        <v>1.004685147887603</v>
+        <v>1.029397412285581</v>
       </c>
       <c r="K9">
-        <v>1.014995388331455</v>
+        <v>1.032121987812693</v>
       </c>
       <c r="L9">
-        <v>1.001001963436703</v>
+        <v>1.030443482112996</v>
       </c>
       <c r="M9">
-        <v>0.9993595808510349</v>
+        <v>1.036509573380425</v>
       </c>
       <c r="N9">
-        <v>1.006111916036601</v>
+        <v>1.03085927468456</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9686804665709389</v>
+        <v>1.021743420999864</v>
       </c>
       <c r="D10">
-        <v>0.994613612060597</v>
+        <v>1.027583687451162</v>
       </c>
       <c r="E10">
-        <v>0.9790000434532861</v>
+        <v>1.025560549148522</v>
       </c>
       <c r="F10">
-        <v>0.9752326136838654</v>
+        <v>1.031262851913147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034608690668326</v>
+        <v>1.031219654370039</v>
       </c>
       <c r="J10">
-        <v>0.9981942715495108</v>
+        <v>1.028175231714553</v>
       </c>
       <c r="K10">
-        <v>1.009080805238673</v>
+        <v>1.031059628510025</v>
       </c>
       <c r="L10">
-        <v>0.9937591005295622</v>
+        <v>1.029043866052592</v>
       </c>
       <c r="M10">
-        <v>0.9900639285390314</v>
+        <v>1.034725461581438</v>
       </c>
       <c r="N10">
-        <v>0.9996118219095941</v>
+        <v>1.029635358476935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9643396177171237</v>
+        <v>1.020974078853637</v>
       </c>
       <c r="D11">
-        <v>0.9913292735843207</v>
+        <v>1.026997134819227</v>
       </c>
       <c r="E11">
-        <v>0.9750987323356961</v>
+        <v>1.024827997686666</v>
       </c>
       <c r="F11">
-        <v>0.9703789932572582</v>
+        <v>1.030363575886646</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033089243561131</v>
+        <v>1.031022994823207</v>
       </c>
       <c r="J11">
-        <v>0.9952750226115064</v>
+        <v>1.027644864019995</v>
       </c>
       <c r="K11">
-        <v>1.006416580762348</v>
+        <v>1.030597937538422</v>
       </c>
       <c r="L11">
-        <v>0.9905060412016102</v>
+        <v>1.028437017911592</v>
       </c>
       <c r="M11">
-        <v>0.9858820056678019</v>
+        <v>1.033951701149609</v>
       </c>
       <c r="N11">
-        <v>0.9966884273032554</v>
+        <v>1.029104237599417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.962701924316169</v>
+        <v>1.020688221901199</v>
       </c>
       <c r="D12">
-        <v>0.9900908893706968</v>
+        <v>1.026779125521276</v>
       </c>
       <c r="E12">
-        <v>0.973628395070778</v>
+        <v>1.024555878947154</v>
       </c>
       <c r="F12">
-        <v>0.9685476677490396</v>
+        <v>1.03002945117504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032513394832374</v>
+        <v>1.030949576583877</v>
       </c>
       <c r="J12">
-        <v>0.9941732068122447</v>
+        <v>1.027447686801852</v>
       </c>
       <c r="K12">
-        <v>1.005410426899681</v>
+        <v>1.030426191102346</v>
       </c>
       <c r="L12">
-        <v>0.9892788950849045</v>
+        <v>1.028211484963535</v>
       </c>
       <c r="M12">
-        <v>0.9843033138403269</v>
+        <v>1.033664104439715</v>
       </c>
       <c r="N12">
-        <v>0.9955850467991788</v>
+        <v>1.028906780367008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9630543910514729</v>
+        <v>1.020749543256147</v>
       </c>
       <c r="D13">
-        <v>0.990357381718403</v>
+        <v>1.02682589549611</v>
       </c>
       <c r="E13">
-        <v>0.9739447726089637</v>
+        <v>1.024614250115563</v>
       </c>
       <c r="F13">
-        <v>0.9689418173963797</v>
+        <v>1.030101126352293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032637445851454</v>
+        <v>1.030965341803867</v>
       </c>
       <c r="J13">
-        <v>0.9944103606748373</v>
+        <v>1.02748998992888</v>
       </c>
       <c r="K13">
-        <v>1.005627016764572</v>
+        <v>1.030463042800936</v>
       </c>
       <c r="L13">
-        <v>0.9895429951179485</v>
+        <v>1.028259868116392</v>
       </c>
       <c r="M13">
-        <v>0.9846431257807944</v>
+        <v>1.033725803451089</v>
       </c>
       <c r="N13">
-        <v>0.9958225374474584</v>
+        <v>1.028949143569329</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9642047727328585</v>
+        <v>1.020950451659157</v>
       </c>
       <c r="D14">
-        <v>0.9912272917639174</v>
+        <v>1.026979116914305</v>
       </c>
       <c r="E14">
-        <v>0.9749776355946798</v>
+        <v>1.02480550461363</v>
       </c>
       <c r="F14">
-        <v>0.9702282089191787</v>
+        <v>1.030335958963439</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033041881407586</v>
+        <v>1.031016933602508</v>
       </c>
       <c r="J14">
-        <v>0.9951843097691605</v>
+        <v>1.027628568868857</v>
       </c>
       <c r="K14">
-        <v>1.006333755622559</v>
+        <v>1.030583746109321</v>
       </c>
       <c r="L14">
-        <v>0.9904049964721879</v>
+        <v>1.028418377796382</v>
       </c>
       <c r="M14">
-        <v>0.985752038344777</v>
+        <v>1.033927932161536</v>
       </c>
       <c r="N14">
-        <v>0.9965975856382686</v>
+        <v>1.029087919307295</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.96491015070565</v>
+        <v>1.021074226086468</v>
       </c>
       <c r="D15">
-        <v>0.9917607914685073</v>
+        <v>1.027073503431384</v>
       </c>
       <c r="E15">
-        <v>0.9756111589060081</v>
+        <v>1.024923340582344</v>
       </c>
       <c r="F15">
-        <v>0.9710169585126341</v>
+        <v>1.030480634579104</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033289528895575</v>
+        <v>1.03104867194946</v>
       </c>
       <c r="J15">
-        <v>0.9956588130829249</v>
+        <v>1.027713928689175</v>
       </c>
       <c r="K15">
-        <v>1.006766975819104</v>
+        <v>1.030658081730497</v>
       </c>
       <c r="L15">
-        <v>0.9909335709784827</v>
+        <v>1.028516024558504</v>
       </c>
       <c r="M15">
-        <v>0.9864318620396049</v>
+        <v>1.034052445374712</v>
       </c>
       <c r="N15">
-        <v>0.9970727628011649</v>
+        <v>1.029173400348348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9689651072443213</v>
+        <v>1.021794467355606</v>
       </c>
       <c r="D16">
-        <v>0.9948290659356019</v>
+        <v>1.027622595787107</v>
       </c>
       <c r="E16">
-        <v>0.9792560688926912</v>
+        <v>1.025609163956563</v>
       </c>
       <c r="F16">
-        <v>0.9755508575923075</v>
+        <v>1.031322520982393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034707961091086</v>
+        <v>1.031232654143327</v>
       </c>
       <c r="J16">
-        <v>0.998385627443274</v>
+        <v>1.028210406004395</v>
       </c>
       <c r="K16">
-        <v>1.00925536073334</v>
+        <v>1.031090233880346</v>
       </c>
       <c r="L16">
-        <v>0.9939724287502022</v>
+        <v>1.029084123468289</v>
       </c>
       <c r="M16">
-        <v>0.9903380170137746</v>
+        <v>1.034776787370679</v>
       </c>
       <c r="N16">
-        <v>0.9998034495506756</v>
+        <v>1.029670582718303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9714655498858745</v>
+        <v>1.022246099691352</v>
       </c>
       <c r="D17">
-        <v>0.9967221868151662</v>
+        <v>1.027966782937698</v>
       </c>
       <c r="E17">
-        <v>0.9815062358326109</v>
+        <v>1.026039335288353</v>
       </c>
       <c r="F17">
-        <v>0.9783464006187087</v>
+        <v>1.031850451300359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035577996116479</v>
+        <v>1.031347402364472</v>
       </c>
       <c r="J17">
-        <v>1.000066217275945</v>
+        <v>1.028521522743431</v>
       </c>
       <c r="K17">
-        <v>1.010787933099261</v>
+        <v>1.031360860317427</v>
       </c>
       <c r="L17">
-        <v>0.9958464886550608</v>
+        <v>1.029440260243958</v>
       </c>
       <c r="M17">
-        <v>0.9927450555580233</v>
+        <v>1.035230816946093</v>
       </c>
       <c r="N17">
-        <v>1.001486426013675</v>
+        <v>1.029982141278794</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9729090383965987</v>
+        <v>1.022509473769626</v>
       </c>
       <c r="D18">
-        <v>0.9978154289216943</v>
+        <v>1.028167453883081</v>
       </c>
       <c r="E18">
-        <v>0.9828061408895704</v>
+        <v>1.026290237575182</v>
       </c>
       <c r="F18">
-        <v>0.9799601851526505</v>
+        <v>1.032158326631843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03607857214876</v>
+        <v>1.031414095770531</v>
       </c>
       <c r="J18">
-        <v>1.001036076762749</v>
+        <v>1.028702880488078</v>
       </c>
       <c r="K18">
-        <v>1.011671977754692</v>
+        <v>1.031518549888011</v>
       </c>
       <c r="L18">
-        <v>0.9969284129889202</v>
+        <v>1.029647911220021</v>
       </c>
       <c r="M18">
-        <v>0.9941340363785377</v>
+        <v>1.035495526416664</v>
       </c>
       <c r="N18">
-        <v>1.002457662812195</v>
+        <v>1.030163756572241</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9733987415816698</v>
+        <v>1.022599268198421</v>
       </c>
       <c r="D19">
-        <v>0.9981863677513205</v>
+        <v>1.028235862662847</v>
       </c>
       <c r="E19">
-        <v>0.9832472833969464</v>
+        <v>1.02637578723377</v>
       </c>
       <c r="F19">
-        <v>0.9805076523519387</v>
+        <v>1.032263294522992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036248103604385</v>
+        <v>1.031436796267491</v>
       </c>
       <c r="J19">
-        <v>1.001365042894512</v>
+        <v>1.028764699943306</v>
       </c>
       <c r="K19">
-        <v>1.011971768494496</v>
+        <v>1.031572290468914</v>
       </c>
       <c r="L19">
-        <v>0.9972954606175902</v>
+        <v>1.029718701725183</v>
       </c>
       <c r="M19">
-        <v>0.9946051490000829</v>
+        <v>1.035585765533975</v>
       </c>
       <c r="N19">
-        <v>1.002787096113599</v>
+        <v>1.030225663818186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9711988375655273</v>
+        <v>1.022197649565983</v>
       </c>
       <c r="D20">
-        <v>0.9965202171930914</v>
+        <v>1.027929863981482</v>
       </c>
       <c r="E20">
-        <v>0.9812661254662361</v>
+        <v>1.025993182957281</v>
       </c>
       <c r="F20">
-        <v>0.9780482181486341</v>
+        <v>1.03179381534601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035485367791151</v>
+        <v>1.031335115514364</v>
       </c>
       <c r="J20">
-        <v>0.9998869895894541</v>
+        <v>1.028488154393065</v>
       </c>
       <c r="K20">
-        <v>1.010624531609908</v>
+        <v>1.031331841452017</v>
       </c>
       <c r="L20">
-        <v>0.9956465851883075</v>
+        <v>1.029402058173849</v>
       </c>
       <c r="M20">
-        <v>0.9924883672938722</v>
+        <v>1.035182116127782</v>
       </c>
       <c r="N20">
-        <v>1.001306943803312</v>
+        <v>1.029948725541544</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9638667279004667</v>
+        <v>1.020891291619363</v>
       </c>
       <c r="D21">
-        <v>0.9909716440341688</v>
+        <v>1.026934000830534</v>
       </c>
       <c r="E21">
-        <v>0.9746740813611073</v>
+        <v>1.024749185400568</v>
       </c>
       <c r="F21">
-        <v>0.96985020241024</v>
+        <v>1.030266809224503</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032923106994246</v>
+        <v>1.031001751325718</v>
       </c>
       <c r="J21">
-        <v>0.9949568933313087</v>
+        <v>1.027587765668729</v>
       </c>
       <c r="K21">
-        <v>1.006126104182731</v>
+        <v>1.030548209009864</v>
       </c>
       <c r="L21">
-        <v>0.9901516886929408</v>
+        <v>1.028371704041379</v>
       </c>
       <c r="M21">
-        <v>0.9854262059070417</v>
+        <v>1.033868415498851</v>
       </c>
       <c r="N21">
-        <v>0.9963698462429899</v>
+        <v>1.029047058161942</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9591092884194858</v>
+        <v>1.020069416231304</v>
       </c>
       <c r="D22">
-        <v>0.9873756961704488</v>
+        <v>1.026307065892047</v>
       </c>
       <c r="E22">
-        <v>0.9704058134000618</v>
+        <v>1.023966938375534</v>
       </c>
       <c r="F22">
-        <v>0.9645298509406873</v>
+        <v>1.029306176766813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03124545113677</v>
+        <v>1.03079001029365</v>
       </c>
       <c r="J22">
-        <v>0.9917553726813264</v>
+        <v>1.027020642078046</v>
       </c>
       <c r="K22">
-        <v>1.003201461072459</v>
+        <v>1.030054038928984</v>
       </c>
       <c r="L22">
-        <v>0.9865872520383073</v>
+        <v>1.027723169808494</v>
       </c>
       <c r="M22">
-        <v>0.9808383201258049</v>
+        <v>1.033041352632726</v>
       </c>
       <c r="N22">
-        <v>0.9931637790664655</v>
+        <v>1.028479129190711</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9616459188913989</v>
+        <v>1.020505157691265</v>
       </c>
       <c r="D23">
-        <v>0.9892925823452731</v>
+        <v>1.026639491787465</v>
       </c>
       <c r="E23">
-        <v>0.9726807458436704</v>
+        <v>1.024381632042539</v>
       </c>
       <c r="F23">
-        <v>0.9673667470336584</v>
+        <v>1.029815478912935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032141358180976</v>
+        <v>1.030902461428454</v>
       </c>
       <c r="J23">
-        <v>0.9934626222424752</v>
+        <v>1.027321381575574</v>
       </c>
       <c r="K23">
-        <v>1.004761374106751</v>
+        <v>1.030316147476488</v>
       </c>
       <c r="L23">
-        <v>0.9884876684608855</v>
+        <v>1.028067037872343</v>
       </c>
       <c r="M23">
-        <v>0.9832850805503837</v>
+        <v>1.033479898395928</v>
       </c>
       <c r="N23">
-        <v>0.9948734531178149</v>
+        <v>1.028780295772821</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9713193995351014</v>
+        <v>1.02221954226272</v>
       </c>
       <c r="D24">
-        <v>0.9966115124248929</v>
+        <v>1.02794654633893</v>
       </c>
       <c r="E24">
-        <v>0.9813746597709578</v>
+        <v>1.026014037237547</v>
       </c>
       <c r="F24">
-        <v>0.978183005761773</v>
+        <v>1.031819406872628</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035527243821888</v>
+        <v>1.031340668146016</v>
       </c>
       <c r="J24">
-        <v>0.9999680069205381</v>
+        <v>1.028503232458003</v>
       </c>
       <c r="K24">
-        <v>1.010698396161063</v>
+        <v>1.031344954329157</v>
       </c>
       <c r="L24">
-        <v>0.9957369474262728</v>
+        <v>1.02941932028419</v>
       </c>
       <c r="M24">
-        <v>0.9926043999069928</v>
+        <v>1.035204122295988</v>
       </c>
       <c r="N24">
-        <v>1.001388076188299</v>
+        <v>1.029963825019063</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9819623126340322</v>
+        <v>1.024206824614848</v>
       </c>
       <c r="D25">
-        <v>1.004677191059801</v>
+        <v>1.029459877602612</v>
       </c>
       <c r="E25">
-        <v>0.9909740533573059</v>
+        <v>1.02790799088313</v>
       </c>
       <c r="F25">
-        <v>0.9900809623705571</v>
+        <v>1.034142611214777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03918744501362</v>
+        <v>1.031839876167133</v>
       </c>
       <c r="J25">
-        <v>1.007112347693338</v>
+        <v>1.029870340172821</v>
       </c>
       <c r="K25">
-        <v>1.017203330981056</v>
+        <v>1.03253246631117</v>
       </c>
       <c r="L25">
-        <v>1.003714120345497</v>
+        <v>1.030985530829961</v>
       </c>
       <c r="M25">
-        <v>1.00283523526457</v>
+        <v>1.037200358326287</v>
       </c>
       <c r="N25">
-        <v>1.008542562744463</v>
+        <v>1.031332874183646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02579021841775</v>
+        <v>0.9900383208024039</v>
       </c>
       <c r="D2">
-        <v>1.030664174593956</v>
+        <v>1.010804007467729</v>
       </c>
       <c r="E2">
-        <v>1.029418373908761</v>
+        <v>0.9982827671745983</v>
       </c>
       <c r="F2">
-        <v>1.035993916326789</v>
+        <v>0.9991095091916431</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032230558027885</v>
+        <v>1.04191046091235</v>
       </c>
       <c r="J2">
-        <v>1.030957273845432</v>
+        <v>1.012521121946815</v>
       </c>
       <c r="K2">
-        <v>1.033474531516214</v>
+        <v>1.022114849670513</v>
       </c>
       <c r="L2">
-        <v>1.032232342361987</v>
+        <v>1.009766077734977</v>
       </c>
       <c r="M2">
-        <v>1.038788929057999</v>
+        <v>1.010581263922231</v>
       </c>
       <c r="N2">
-        <v>1.032421351426751</v>
+        <v>1.013959018077775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026938987174463</v>
+        <v>0.9956874915586492</v>
       </c>
       <c r="D3">
-        <v>1.031537035326647</v>
+        <v>1.015091607128183</v>
       </c>
       <c r="E3">
-        <v>1.030514945218111</v>
+        <v>1.003408195009823</v>
       </c>
       <c r="F3">
-        <v>1.037337222847773</v>
+        <v>1.005425923951792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032509896211723</v>
+        <v>1.043782604344768</v>
       </c>
       <c r="J3">
-        <v>1.031744499328278</v>
+        <v>1.016296414303925</v>
       </c>
       <c r="K3">
-        <v>1.034155621235942</v>
+        <v>1.025534962005663</v>
       </c>
       <c r="L3">
-        <v>1.033136278540924</v>
+        <v>1.013997652295938</v>
       </c>
       <c r="M3">
-        <v>1.039940328501029</v>
+        <v>1.015989846648927</v>
       </c>
       <c r="N3">
-        <v>1.033209694860072</v>
+        <v>1.017739671783065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027681908650085</v>
+        <v>0.9992507781578874</v>
       </c>
       <c r="D4">
-        <v>1.03210111613187</v>
+        <v>1.017796382916836</v>
       </c>
       <c r="E4">
-        <v>1.03122446411666</v>
+        <v>1.00664677254192</v>
       </c>
       <c r="F4">
-        <v>1.038206035137431</v>
+        <v>1.009410758316251</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032688645428604</v>
+        <v>1.044948026330094</v>
       </c>
       <c r="J4">
-        <v>1.032252977048416</v>
+        <v>1.018673668543032</v>
       </c>
       <c r="K4">
-        <v>1.034594980859085</v>
+        <v>1.027684663177</v>
       </c>
       <c r="L4">
-        <v>1.03372056594895</v>
+        <v>1.016665633381249</v>
       </c>
       <c r="M4">
-        <v>1.040684433770066</v>
+        <v>1.019396915296639</v>
       </c>
       <c r="N4">
-        <v>1.033718894676896</v>
+        <v>1.020120301995866</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027994136838721</v>
+        <v>1.000727728593369</v>
       </c>
       <c r="D5">
-        <v>1.032338084304437</v>
+        <v>1.018917486261911</v>
       </c>
       <c r="E5">
-        <v>1.031522738447562</v>
+        <v>1.007990440399509</v>
       </c>
       <c r="F5">
-        <v>1.038571191652642</v>
+        <v>1.011062631004128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03276331280978</v>
+        <v>1.045427319451683</v>
       </c>
       <c r="J5">
-        <v>1.0324665242809</v>
+        <v>1.019658003459045</v>
       </c>
       <c r="K5">
-        <v>1.034779364907675</v>
+        <v>1.028573817684301</v>
       </c>
       <c r="L5">
-        <v>1.033966053100153</v>
+        <v>1.017771169480912</v>
       </c>
       <c r="M5">
-        <v>1.040997036034337</v>
+        <v>1.020808049775193</v>
       </c>
       <c r="N5">
-        <v>1.033932745170945</v>
+        <v>1.021106034780365</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028046555749647</v>
+        <v>1.000974508075863</v>
       </c>
       <c r="D6">
-        <v>1.032377862269743</v>
+        <v>1.01910480592732</v>
       </c>
       <c r="E6">
-        <v>1.03157281962074</v>
+        <v>1.008215025521028</v>
       </c>
       <c r="F6">
-        <v>1.038632497715586</v>
+        <v>1.011338650086787</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032775821724276</v>
+        <v>1.045507180283475</v>
       </c>
       <c r="J6">
-        <v>1.032502367116742</v>
+        <v>1.019822412296223</v>
       </c>
       <c r="K6">
-        <v>1.034810304895109</v>
+        <v>1.028722271928799</v>
       </c>
       <c r="L6">
-        <v>1.034007262868371</v>
+        <v>1.017955870406268</v>
       </c>
       <c r="M6">
-        <v>1.041049510521913</v>
+        <v>1.021043769784375</v>
       </c>
       <c r="N6">
-        <v>1.033968638907725</v>
+        <v>1.02127067709695</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027686081033336</v>
+        <v>0.9992705947072384</v>
       </c>
       <c r="D7">
-        <v>1.032104283184941</v>
+        <v>1.017811425101026</v>
       </c>
       <c r="E7">
-        <v>1.031228449700491</v>
+        <v>1.00666479570779</v>
       </c>
       <c r="F7">
-        <v>1.038210914735311</v>
+        <v>1.009432921023486</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032689645018743</v>
+        <v>1.044954472060856</v>
       </c>
       <c r="J7">
-        <v>1.032255831327627</v>
+        <v>1.018686879638492</v>
       </c>
       <c r="K7">
-        <v>1.034597445875069</v>
+        <v>1.027696600647374</v>
       </c>
       <c r="L7">
-        <v>1.033723846737624</v>
+        <v>1.016680467903974</v>
       </c>
       <c r="M7">
-        <v>1.040688611636726</v>
+        <v>1.019415852984046</v>
       </c>
       <c r="N7">
-        <v>1.033721753009511</v>
+        <v>1.020133531852597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026178535942843</v>
+        <v>0.9919671758641191</v>
       </c>
       <c r="D8">
-        <v>1.030959311092136</v>
+        <v>1.012267851223156</v>
       </c>
       <c r="E8">
-        <v>1.029788973521096</v>
+        <v>1.000031575924389</v>
       </c>
       <c r="F8">
-        <v>1.036447976936339</v>
+        <v>1.001266067013678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032325376244124</v>
+        <v>1.042552904038897</v>
       </c>
       <c r="J8">
-        <v>1.03122350937452</v>
+        <v>1.013810987342071</v>
       </c>
       <c r="K8">
-        <v>1.033704989120018</v>
+        <v>1.023284171776552</v>
       </c>
       <c r="L8">
-        <v>1.032537960808455</v>
+        <v>1.011211119510782</v>
       </c>
       <c r="M8">
-        <v>1.039178243297637</v>
+        <v>1.012428915885837</v>
       </c>
       <c r="N8">
-        <v>1.032687965040822</v>
+        <v>1.015250715229843</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023518835084778</v>
+        <v>0.9783437717657003</v>
       </c>
       <c r="D9">
-        <v>1.028936193485074</v>
+        <v>1.001933604810125</v>
       </c>
       <c r="E9">
-        <v>1.027252100978465</v>
+        <v>0.9877062287313562</v>
       </c>
       <c r="F9">
-        <v>1.033338288238755</v>
+        <v>0.9860358071040182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031668145933797</v>
+        <v>1.037951467780673</v>
       </c>
       <c r="J9">
-        <v>1.029397412285581</v>
+        <v>1.004685147887603</v>
       </c>
       <c r="K9">
-        <v>1.032121987812693</v>
+        <v>1.014995388331454</v>
       </c>
       <c r="L9">
-        <v>1.030443482112996</v>
+        <v>1.001001963436703</v>
       </c>
       <c r="M9">
-        <v>1.036509573380425</v>
+        <v>0.9993595808510347</v>
       </c>
       <c r="N9">
-        <v>1.03085927468456</v>
+        <v>1.0061119160366</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021743420999864</v>
+        <v>0.9686804665709378</v>
       </c>
       <c r="D10">
-        <v>1.027583687451162</v>
+        <v>0.9946136120605962</v>
       </c>
       <c r="E10">
-        <v>1.025560549148522</v>
+        <v>0.979000043453285</v>
       </c>
       <c r="F10">
-        <v>1.031262851913147</v>
+        <v>0.9752326136838645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031219654370039</v>
+        <v>1.034608690668325</v>
       </c>
       <c r="J10">
-        <v>1.028175231714553</v>
+        <v>0.99819427154951</v>
       </c>
       <c r="K10">
-        <v>1.031059628510025</v>
+        <v>1.009080805238672</v>
       </c>
       <c r="L10">
-        <v>1.029043866052592</v>
+        <v>0.9937591005295614</v>
       </c>
       <c r="M10">
-        <v>1.034725461581438</v>
+        <v>0.9900639285390306</v>
       </c>
       <c r="N10">
-        <v>1.029635358476935</v>
+        <v>0.9996118219095934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020974078853637</v>
+        <v>0.9643396177171247</v>
       </c>
       <c r="D11">
-        <v>1.026997134819227</v>
+        <v>0.9913292735843215</v>
       </c>
       <c r="E11">
-        <v>1.024827997686666</v>
+        <v>0.9750987323356968</v>
       </c>
       <c r="F11">
-        <v>1.030363575886646</v>
+        <v>0.970378993257259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031022994823207</v>
+        <v>1.033089243561131</v>
       </c>
       <c r="J11">
-        <v>1.027644864019995</v>
+        <v>0.9952750226115071</v>
       </c>
       <c r="K11">
-        <v>1.030597937538422</v>
+        <v>1.006416580762349</v>
       </c>
       <c r="L11">
-        <v>1.028437017911592</v>
+        <v>0.9905060412016108</v>
       </c>
       <c r="M11">
-        <v>1.033951701149609</v>
+        <v>0.9858820056678027</v>
       </c>
       <c r="N11">
-        <v>1.029104237599417</v>
+        <v>0.9966884273032564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020688221901199</v>
+        <v>0.9627019243161685</v>
       </c>
       <c r="D12">
-        <v>1.026779125521276</v>
+        <v>0.9900908893706964</v>
       </c>
       <c r="E12">
-        <v>1.024555878947154</v>
+        <v>0.9736283950707773</v>
       </c>
       <c r="F12">
-        <v>1.03002945117504</v>
+        <v>0.9685476677490392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030949576583877</v>
+        <v>1.032513394832374</v>
       </c>
       <c r="J12">
-        <v>1.027447686801852</v>
+        <v>0.9941732068122444</v>
       </c>
       <c r="K12">
-        <v>1.030426191102346</v>
+        <v>1.005410426899681</v>
       </c>
       <c r="L12">
-        <v>1.028211484963535</v>
+        <v>0.9892788950849037</v>
       </c>
       <c r="M12">
-        <v>1.033664104439715</v>
+        <v>0.9843033138403263</v>
       </c>
       <c r="N12">
-        <v>1.028906780367008</v>
+        <v>0.9955850467991785</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020749543256147</v>
+        <v>0.9630543910514736</v>
       </c>
       <c r="D13">
-        <v>1.02682589549611</v>
+        <v>0.9903573817184033</v>
       </c>
       <c r="E13">
-        <v>1.024614250115563</v>
+        <v>0.9739447726089645</v>
       </c>
       <c r="F13">
-        <v>1.030101126352293</v>
+        <v>0.9689418173963802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030965341803867</v>
+        <v>1.032637445851454</v>
       </c>
       <c r="J13">
-        <v>1.02748998992888</v>
+        <v>0.9944103606748379</v>
       </c>
       <c r="K13">
-        <v>1.030463042800936</v>
+        <v>1.005627016764572</v>
       </c>
       <c r="L13">
-        <v>1.028259868116392</v>
+        <v>0.9895429951179493</v>
       </c>
       <c r="M13">
-        <v>1.033725803451089</v>
+        <v>0.9846431257807949</v>
       </c>
       <c r="N13">
-        <v>1.028949143569329</v>
+        <v>0.995822537447459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020950451659157</v>
+        <v>0.9642047727328589</v>
       </c>
       <c r="D14">
-        <v>1.026979116914305</v>
+        <v>0.991227291763918</v>
       </c>
       <c r="E14">
-        <v>1.02480550461363</v>
+        <v>0.9749776355946805</v>
       </c>
       <c r="F14">
-        <v>1.030335958963439</v>
+        <v>0.9702282089191792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031016933602508</v>
+        <v>1.033041881407586</v>
       </c>
       <c r="J14">
-        <v>1.027628568868857</v>
+        <v>0.9951843097691609</v>
       </c>
       <c r="K14">
-        <v>1.030583746109321</v>
+        <v>1.006333755622559</v>
       </c>
       <c r="L14">
-        <v>1.028418377796382</v>
+        <v>0.9904049964721886</v>
       </c>
       <c r="M14">
-        <v>1.033927932161536</v>
+        <v>0.9857520383447773</v>
       </c>
       <c r="N14">
-        <v>1.029087919307295</v>
+        <v>0.9965975856382691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021074226086468</v>
+        <v>0.9649101507056508</v>
       </c>
       <c r="D15">
-        <v>1.027073503431384</v>
+        <v>0.9917607914685078</v>
       </c>
       <c r="E15">
-        <v>1.024923340582344</v>
+        <v>0.975611158906009</v>
       </c>
       <c r="F15">
-        <v>1.030480634579104</v>
+        <v>0.9710169585126348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03104867194946</v>
+        <v>1.033289528895575</v>
       </c>
       <c r="J15">
-        <v>1.027713928689175</v>
+        <v>0.9956588130829257</v>
       </c>
       <c r="K15">
-        <v>1.030658081730497</v>
+        <v>1.006766975819105</v>
       </c>
       <c r="L15">
-        <v>1.028516024558504</v>
+        <v>0.9909335709784836</v>
       </c>
       <c r="M15">
-        <v>1.034052445374712</v>
+        <v>0.9864318620396054</v>
       </c>
       <c r="N15">
-        <v>1.029173400348348</v>
+        <v>0.9970727628011654</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021794467355606</v>
+        <v>0.9689651072443215</v>
       </c>
       <c r="D16">
-        <v>1.027622595787107</v>
+        <v>0.9948290659356023</v>
       </c>
       <c r="E16">
-        <v>1.025609163956563</v>
+        <v>0.9792560688926917</v>
       </c>
       <c r="F16">
-        <v>1.031322520982393</v>
+        <v>0.9755508575923076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031232654143327</v>
+        <v>1.034707961091086</v>
       </c>
       <c r="J16">
-        <v>1.028210406004395</v>
+        <v>0.9983856274432743</v>
       </c>
       <c r="K16">
-        <v>1.031090233880346</v>
+        <v>1.00925536073334</v>
       </c>
       <c r="L16">
-        <v>1.029084123468289</v>
+        <v>0.9939724287502028</v>
       </c>
       <c r="M16">
-        <v>1.034776787370679</v>
+        <v>0.9903380170137749</v>
       </c>
       <c r="N16">
-        <v>1.029670582718303</v>
+        <v>0.9998034495506758</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022246099691352</v>
+        <v>0.9714655498858745</v>
       </c>
       <c r="D17">
-        <v>1.027966782937698</v>
+        <v>0.9967221868151657</v>
       </c>
       <c r="E17">
-        <v>1.026039335288353</v>
+        <v>0.9815062358326105</v>
       </c>
       <c r="F17">
-        <v>1.031850451300359</v>
+        <v>0.9783464006187084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031347402364472</v>
+        <v>1.035577996116478</v>
       </c>
       <c r="J17">
-        <v>1.028521522743431</v>
+        <v>1.000066217275945</v>
       </c>
       <c r="K17">
-        <v>1.031360860317427</v>
+        <v>1.01078793309926</v>
       </c>
       <c r="L17">
-        <v>1.029440260243958</v>
+        <v>0.9958464886550605</v>
       </c>
       <c r="M17">
-        <v>1.035230816946093</v>
+        <v>0.9927450555580229</v>
       </c>
       <c r="N17">
-        <v>1.029982141278794</v>
+        <v>1.001486426013675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022509473769626</v>
+        <v>0.9729090383966007</v>
       </c>
       <c r="D18">
-        <v>1.028167453883081</v>
+        <v>0.9978154289216961</v>
       </c>
       <c r="E18">
-        <v>1.026290237575182</v>
+        <v>0.982806140889572</v>
       </c>
       <c r="F18">
-        <v>1.032158326631843</v>
+        <v>0.9799601851526524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031414095770531</v>
+        <v>1.036078572148761</v>
       </c>
       <c r="J18">
-        <v>1.028702880488078</v>
+        <v>1.001036076762751</v>
       </c>
       <c r="K18">
-        <v>1.031518549888011</v>
+        <v>1.011671977754693</v>
       </c>
       <c r="L18">
-        <v>1.029647911220021</v>
+        <v>0.996928412988922</v>
       </c>
       <c r="M18">
-        <v>1.035495526416664</v>
+        <v>0.9941340363785394</v>
       </c>
       <c r="N18">
-        <v>1.030163756572241</v>
+        <v>1.002457662812196</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022599268198421</v>
+        <v>0.9733987415816702</v>
       </c>
       <c r="D19">
-        <v>1.028235862662847</v>
+        <v>0.9981863677513211</v>
       </c>
       <c r="E19">
-        <v>1.02637578723377</v>
+        <v>0.9832472833969468</v>
       </c>
       <c r="F19">
-        <v>1.032263294522992</v>
+        <v>0.980507652351939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031436796267491</v>
+        <v>1.036248103604385</v>
       </c>
       <c r="J19">
-        <v>1.028764699943306</v>
+        <v>1.001365042894513</v>
       </c>
       <c r="K19">
-        <v>1.031572290468914</v>
+        <v>1.011971768494497</v>
       </c>
       <c r="L19">
-        <v>1.029718701725183</v>
+        <v>0.9972954606175906</v>
       </c>
       <c r="M19">
-        <v>1.035585765533975</v>
+        <v>0.9946051490000833</v>
       </c>
       <c r="N19">
-        <v>1.030225663818186</v>
+        <v>1.002787096113599</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022197649565983</v>
+        <v>0.9711988375655279</v>
       </c>
       <c r="D20">
-        <v>1.027929863981482</v>
+        <v>0.996520217193092</v>
       </c>
       <c r="E20">
-        <v>1.025993182957281</v>
+        <v>0.9812661254662369</v>
       </c>
       <c r="F20">
-        <v>1.03179381534601</v>
+        <v>0.9780482181486347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031335115514364</v>
+        <v>1.035485367791152</v>
       </c>
       <c r="J20">
-        <v>1.028488154393065</v>
+        <v>0.9998869895894548</v>
       </c>
       <c r="K20">
-        <v>1.031331841452017</v>
+        <v>1.010624531609909</v>
       </c>
       <c r="L20">
-        <v>1.029402058173849</v>
+        <v>0.9956465851883081</v>
       </c>
       <c r="M20">
-        <v>1.035182116127782</v>
+        <v>0.992488367293873</v>
       </c>
       <c r="N20">
-        <v>1.029948725541544</v>
+        <v>1.001306943803313</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020891291619363</v>
+        <v>0.9638667279004671</v>
       </c>
       <c r="D21">
-        <v>1.026934000830534</v>
+        <v>0.9909716440341697</v>
       </c>
       <c r="E21">
-        <v>1.024749185400568</v>
+        <v>0.9746740813611078</v>
       </c>
       <c r="F21">
-        <v>1.030266809224503</v>
+        <v>0.9698502024102408</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031001751325718</v>
+        <v>1.032923106994246</v>
       </c>
       <c r="J21">
-        <v>1.027587765668729</v>
+        <v>0.9949568933313093</v>
       </c>
       <c r="K21">
-        <v>1.030548209009864</v>
+        <v>1.006126104182732</v>
       </c>
       <c r="L21">
-        <v>1.028371704041379</v>
+        <v>0.9901516886929412</v>
       </c>
       <c r="M21">
-        <v>1.033868415498851</v>
+        <v>0.9854262059070423</v>
       </c>
       <c r="N21">
-        <v>1.029047058161942</v>
+        <v>0.9963698462429905</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020069416231304</v>
+        <v>0.9591092884194851</v>
       </c>
       <c r="D22">
-        <v>1.026307065892047</v>
+        <v>0.9873756961704478</v>
       </c>
       <c r="E22">
-        <v>1.023966938375534</v>
+        <v>0.970405813400061</v>
       </c>
       <c r="F22">
-        <v>1.029306176766813</v>
+        <v>0.9645298509406868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03079001029365</v>
+        <v>1.031245451136769</v>
       </c>
       <c r="J22">
-        <v>1.027020642078046</v>
+        <v>0.9917553726813256</v>
       </c>
       <c r="K22">
-        <v>1.030054038928984</v>
+        <v>1.003201461072459</v>
       </c>
       <c r="L22">
-        <v>1.027723169808494</v>
+        <v>0.9865872520383066</v>
       </c>
       <c r="M22">
-        <v>1.033041352632726</v>
+        <v>0.9808383201258042</v>
       </c>
       <c r="N22">
-        <v>1.028479129190711</v>
+        <v>0.9931637790664647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020505157691265</v>
+        <v>0.9616459188913985</v>
       </c>
       <c r="D23">
-        <v>1.026639491787465</v>
+        <v>0.9892925823452725</v>
       </c>
       <c r="E23">
-        <v>1.024381632042539</v>
+        <v>0.9726807458436701</v>
       </c>
       <c r="F23">
-        <v>1.029815478912935</v>
+        <v>0.9673667470336578</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030902461428454</v>
+        <v>1.032141358180975</v>
       </c>
       <c r="J23">
-        <v>1.027321381575574</v>
+        <v>0.9934626222424748</v>
       </c>
       <c r="K23">
-        <v>1.030316147476488</v>
+        <v>1.004761374106751</v>
       </c>
       <c r="L23">
-        <v>1.028067037872343</v>
+        <v>0.9884876684608854</v>
       </c>
       <c r="M23">
-        <v>1.033479898395928</v>
+        <v>0.983285080550383</v>
       </c>
       <c r="N23">
-        <v>1.028780295772821</v>
+        <v>0.9948734531178145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02221954226272</v>
+        <v>0.9713193995351017</v>
       </c>
       <c r="D24">
-        <v>1.02794654633893</v>
+        <v>0.9966115124248932</v>
       </c>
       <c r="E24">
-        <v>1.026014037237547</v>
+        <v>0.9813746597709578</v>
       </c>
       <c r="F24">
-        <v>1.031819406872628</v>
+        <v>0.978183005761773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031340668146016</v>
+        <v>1.035527243821888</v>
       </c>
       <c r="J24">
-        <v>1.028503232458003</v>
+        <v>0.9999680069205382</v>
       </c>
       <c r="K24">
-        <v>1.031344954329157</v>
+        <v>1.010698396161063</v>
       </c>
       <c r="L24">
-        <v>1.02941932028419</v>
+        <v>0.9957369474262728</v>
       </c>
       <c r="M24">
-        <v>1.035204122295988</v>
+        <v>0.9926043999069926</v>
       </c>
       <c r="N24">
-        <v>1.029963825019063</v>
+        <v>1.001388076188299</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024206824614848</v>
+        <v>0.9819623126340317</v>
       </c>
       <c r="D25">
-        <v>1.029459877602612</v>
+        <v>1.0046771910598</v>
       </c>
       <c r="E25">
-        <v>1.02790799088313</v>
+        <v>0.9909740533573057</v>
       </c>
       <c r="F25">
-        <v>1.034142611214777</v>
+        <v>0.9900809623705564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031839876167133</v>
+        <v>1.03918744501362</v>
       </c>
       <c r="J25">
-        <v>1.029870340172821</v>
+        <v>1.007112347693338</v>
       </c>
       <c r="K25">
-        <v>1.03253246631117</v>
+        <v>1.017203330981056</v>
       </c>
       <c r="L25">
-        <v>1.030985530829961</v>
+        <v>1.003714120345497</v>
       </c>
       <c r="M25">
-        <v>1.037200358326287</v>
+        <v>1.00283523526457</v>
       </c>
       <c r="N25">
-        <v>1.031332874183646</v>
+        <v>1.008542562744463</v>
       </c>
     </row>
   </sheetData>
